--- a/biology/Biologie cellulaire et moléculaire/Élément_cis-régulateur/Élément_cis-régulateur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Élément_cis-régulateur/Élément_cis-régulateur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ment_cis-r%C3%A9gulateur</t>
+          <t>Élément_cis-régulateur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un élément cis-régulateur est une séquence d'ADN capable de moduler l'expression d'un gène présent (en général) sur le même chromosome. 
 La notion de séquence cis s'oppose à celle de facteur trans qui désigne quant à elle les facteurs de transcription agissant sur ces séquences cis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ment_cis-r%C3%A9gulateur</t>
+          <t>Élément_cis-régulateur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Historiquement, la définition des facteurs cis est expérimentale : un facteur agit en cis si l'on ne peut pas le transcomplémenter, c'est-à-dire que l'on n'obtient pas l'effet de modulation si on transfecte un plasmide contenant la séquence correspondante associé à un promoteur dans la cellule.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89l%C3%A9ment_cis-r%C3%A9gulateur</t>
+          <t>Élément_cis-régulateur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,21 +559,136 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Définition générale
-Séquences inférieures à 20 nucléotides ;
+          <t>Définition générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Séquences inférieures à 20 nucléotides ;
 le plus souvent situé en amont du site d'initiation (sauf exception : régulation en amont du gène dans la région 5'UTR, c’est-à-dire’ dans la région promotrice du gène) ;
 certaines de ces séquences confèrent une spécificité tissulaire d'expression aux gènes qui les possèdent ;
-d'autres sont la cible de facteur transcriptionnels (facteur trans) dont la fixation ou l'activation est sous contrôle de stimuli intra ou exta cellulaires (comme les hormones par exemple).
-Différentes régions cis
-Il existe deux types de séquences CIS agissant dans la régulation des gènes :
+d'autres sont la cible de facteur transcriptionnels (facteur trans) dont la fixation ou l'activation est sous contrôle de stimuli intra ou exta cellulaires (comme les hormones par exemple).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Élément_cis-régulateur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9ment_cis-r%C3%A9gulateur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Eléments cis-régulateur</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Différentes régions cis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Il existe deux types de séquences CIS agissant dans la régulation des gènes :
 Les séquences cis régulatrices à position parfaitement définie
-Les séquences cis régulatrices à localisation variable
-Séquences à position parfaitement définie
-Possèdent une séquence spécifique,
+Les séquences cis régulatrices à localisation variable</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Élément_cis-régulateur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9ment_cis-r%C3%A9gulateur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Eléments cis-régulateur</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Différentes régions cis</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Séquences à position parfaitement définie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Possèdent une séquence spécifique,
 ont une position non modifiable,
-correspondent aux régions promotrices (TATA box,..) et aux response elements
-Séquences à localisation variable
-Souvent très éloignées du gène : en amont/aval/dans les introns ou sur un autre brin de l'ADN.
+correspondent aux régions promotrices (TATA box,..) et aux response elements</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Élément_cis-régulateur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biologie cellulaire et moléculaire/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89l%C3%A9ment_cis-r%C3%A9gulateur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Eléments cis-régulateur</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Différentes régions cis</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Séquences à localisation variable</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Souvent très éloignées du gène : en amont/aval/dans les introns ou sur un autre brin de l'ADN.
 Comprend deux types particuliers :
 Séquence stimulatrice = enhancers, qui permettent l'activation de certains gènes dans des tissus particuliers.
 Séquence inhibitrice = silencers, impliquée dans la répression des gènes.
